--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H2">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I2">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J2">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>0.009436203441777778</v>
+        <v>0.8285465234621111</v>
       </c>
       <c r="R2">
-        <v>0.084925830976</v>
+        <v>7.456918711159</v>
       </c>
       <c r="S2">
-        <v>6.269583711692885E-08</v>
+        <v>4.854486685400704E-06</v>
       </c>
       <c r="T2">
-        <v>6.269583711692885E-08</v>
+        <v>4.854486685400704E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -602,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H3">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I3">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J3">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>14.61577206877511</v>
+        <v>72.37192355871967</v>
       </c>
       <c r="R3">
-        <v>131.541948618976</v>
+        <v>651.3473120284769</v>
       </c>
       <c r="S3">
-        <v>9.710982500706269E-05</v>
+        <v>0.0004240299480644772</v>
       </c>
       <c r="T3">
-        <v>9.710982500706269E-05</v>
+        <v>0.0004240299480644772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H4">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I4">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J4">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>2.624420433313778</v>
+        <v>8.570214366492667</v>
       </c>
       <c r="R4">
-        <v>23.619783899824</v>
+        <v>77.131929298434</v>
       </c>
       <c r="S4">
-        <v>1.743712257038633E-05</v>
+        <v>5.021322322290934E-05</v>
       </c>
       <c r="T4">
-        <v>1.743712257038633E-05</v>
+        <v>5.021322322290934E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H5">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I5">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J5">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>15.29686399300267</v>
+        <v>39.21149384320799</v>
       </c>
       <c r="R5">
-        <v>137.671775937024</v>
+        <v>352.9034445888719</v>
       </c>
       <c r="S5">
-        <v>0.0001016351225598867</v>
+        <v>0.0002297416854531398</v>
       </c>
       <c r="T5">
-        <v>0.0001016351225598867</v>
+        <v>0.0002297416854531399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,40 +797,40 @@
         <v>0.254913</v>
       </c>
       <c r="I6">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J6">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>0.003339586889333333</v>
+        <v>0.08023321530566668</v>
       </c>
       <c r="R6">
-        <v>0.030056282004</v>
+        <v>0.7220989377510001</v>
       </c>
       <c r="S6">
-        <v>2.218881745644379E-08</v>
+        <v>4.700895657623962E-07</v>
       </c>
       <c r="T6">
-        <v>2.218881745644379E-08</v>
+        <v>4.700895657623963E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,10 +859,10 @@
         <v>0.254913</v>
       </c>
       <c r="I7">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J7">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>5.172699071139334</v>
+        <v>7.008214940917001</v>
       </c>
       <c r="R7">
-        <v>46.554291640254</v>
+        <v>63.073934468253</v>
       </c>
       <c r="S7">
-        <v>3.43683453223579E-05</v>
+        <v>4.106140712165288E-05</v>
       </c>
       <c r="T7">
-        <v>3.43683453223579E-05</v>
+        <v>4.106140712165288E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +921,10 @@
         <v>0.254913</v>
       </c>
       <c r="I8">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J8">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>0.9288142339523334</v>
+        <v>0.8299061489140002</v>
       </c>
       <c r="R8">
-        <v>8.359328105571</v>
+        <v>7.469155340226</v>
       </c>
       <c r="S8">
-        <v>6.171209245652879E-06</v>
+        <v>4.862452784426438E-06</v>
       </c>
       <c r="T8">
-        <v>6.171209245652878E-06</v>
+        <v>4.862452784426438E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +983,10 @@
         <v>0.254913</v>
       </c>
       <c r="I9">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J9">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>5.413745766944</v>
+        <v>3.797088200711999</v>
       </c>
       <c r="R9">
-        <v>48.72371190249601</v>
+        <v>34.17379380640799</v>
       </c>
       <c r="S9">
-        <v>3.5969903032616E-05</v>
+        <v>2.224728918857318E-05</v>
       </c>
       <c r="T9">
-        <v>3.5969903032616E-05</v>
+        <v>2.224728918857318E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H10">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I10">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J10">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>2.458233943368</v>
+        <v>67.10897614216212</v>
       </c>
       <c r="R10">
-        <v>22.124105490312</v>
+        <v>603.9807852794592</v>
       </c>
       <c r="S10">
-        <v>1.633294956596119E-05</v>
+        <v>0.0003931941320467048</v>
       </c>
       <c r="T10">
-        <v>1.633294956596119E-05</v>
+        <v>0.0003931941320467048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1086,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H11">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I11">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J11">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>3807.568078589869</v>
+        <v>5861.838235914821</v>
       </c>
       <c r="R11">
-        <v>34268.11270730882</v>
+        <v>52756.54412323338</v>
       </c>
       <c r="S11">
-        <v>0.02529816885994497</v>
+        <v>0.03434474089555761</v>
       </c>
       <c r="T11">
-        <v>0.02529816885994497</v>
+        <v>0.03434474089555761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H12">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I12">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J12">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>683.6901546947821</v>
+        <v>694.1533096426929</v>
       </c>
       <c r="R12">
-        <v>6153.211392253039</v>
+        <v>6247.379786784235</v>
       </c>
       <c r="S12">
-        <v>0.004542560664537378</v>
+        <v>0.004067071557076398</v>
       </c>
       <c r="T12">
-        <v>0.004542560664537378</v>
+        <v>0.004067071557076397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1210,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H13">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I13">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J13">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N13">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q13">
-        <v>3984.999955405633</v>
+        <v>3175.975193072808</v>
       </c>
       <c r="R13">
-        <v>35864.9995986507</v>
+        <v>28583.77673765527</v>
       </c>
       <c r="S13">
-        <v>0.02647705824239944</v>
+        <v>0.01860816363517084</v>
       </c>
       <c r="T13">
-        <v>0.02647705824239944</v>
+        <v>0.01860816363517084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H14">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I14">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J14">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N14">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q14">
-        <v>36.83281406897867</v>
+        <v>0.03396376723511111</v>
       </c>
       <c r="R14">
-        <v>331.495326620808</v>
+        <v>0.305673905116</v>
       </c>
       <c r="S14">
-        <v>0.0002447238580298929</v>
+        <v>1.98995048751098E-07</v>
       </c>
       <c r="T14">
-        <v>0.000244723858029893</v>
+        <v>1.98995048751098E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H15">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I15">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J15">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N15">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q15">
-        <v>57050.48840938749</v>
+        <v>2.966668855038667</v>
       </c>
       <c r="R15">
-        <v>513454.3956844874</v>
+        <v>26.700019695348</v>
       </c>
       <c r="S15">
-        <v>0.3790537318133872</v>
+        <v>1.738182956413882E-05</v>
       </c>
       <c r="T15">
-        <v>0.3790537318133873</v>
+        <v>1.738182956413882E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H16">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I16">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J16">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N16">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O16">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P16">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q16">
-        <v>10244.03410285771</v>
+        <v>0.3513101046906667</v>
       </c>
       <c r="R16">
-        <v>92196.30692571936</v>
+        <v>3.161790942216</v>
       </c>
       <c r="S16">
-        <v>0.06806320968976798</v>
+        <v>2.058339727914575E-06</v>
       </c>
       <c r="T16">
-        <v>0.06806320968976798</v>
+        <v>2.058339727914575E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H17">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I17">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J17">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N17">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q17">
-        <v>59709.0292477387</v>
+        <v>1.607356994592</v>
       </c>
       <c r="R17">
-        <v>537381.2632296482</v>
+        <v>14.466212951328</v>
       </c>
       <c r="S17">
-        <v>0.3967175565071211</v>
+        <v>9.417567883005396E-06</v>
       </c>
       <c r="T17">
-        <v>0.3967175565071211</v>
+        <v>9.417567883005397E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1520,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1532,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H18">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I18">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J18">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N18">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q18">
-        <v>4.332855213602222</v>
+        <v>1050.714012961317</v>
       </c>
       <c r="R18">
-        <v>38.99569692242</v>
+        <v>9456.426116651852</v>
       </c>
       <c r="S18">
-        <v>2.878827129993095E-05</v>
+        <v>0.006156174748970395</v>
       </c>
       <c r="T18">
-        <v>2.878827129993096E-05</v>
+        <v>0.006156174748970395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1582,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H19">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I19">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J19">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N19">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q19">
-        <v>6711.17622672652</v>
+        <v>91777.82064713397</v>
       </c>
       <c r="R19">
-        <v>60400.58604053868</v>
+        <v>826000.3858242056</v>
       </c>
       <c r="S19">
-        <v>0.0445902649481855</v>
+        <v>0.5377298627540251</v>
       </c>
       <c r="T19">
-        <v>0.0445902649481855</v>
+        <v>0.537729862754025</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1644,13 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H20">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I20">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J20">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N20">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O20">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P20">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q20">
-        <v>1205.064497319217</v>
+        <v>10868.2422458659</v>
       </c>
       <c r="R20">
-        <v>10845.58047587296</v>
+        <v>97814.18021279312</v>
       </c>
       <c r="S20">
-        <v>0.008006665806379151</v>
+        <v>0.06367745899868969</v>
       </c>
       <c r="T20">
-        <v>0.008006665806379151</v>
+        <v>0.06367745899868968</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1112.75885</v>
+      </c>
+      <c r="H21">
+        <v>3338.27655</v>
+      </c>
+      <c r="I21">
+        <v>0.8989084016233635</v>
+      </c>
+      <c r="J21">
+        <v>0.8989084016233634</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>44.68687199999999</v>
+      </c>
+      <c r="N21">
+        <v>134.060616</v>
+      </c>
+      <c r="O21">
+        <v>0.3241096696788354</v>
+      </c>
+      <c r="P21">
+        <v>0.3241096696788355</v>
+      </c>
+      <c r="Q21">
+        <v>49725.7122968172</v>
+      </c>
+      <c r="R21">
+        <v>447531.4106713548</v>
+      </c>
+      <c r="S21">
+        <v>0.2913449051216783</v>
+      </c>
+      <c r="T21">
+        <v>0.2913449051216783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H22">
+        <v>159.213361</v>
+      </c>
+      <c r="I22">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J22">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9442423333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.832727</v>
+      </c>
+      <c r="O22">
+        <v>0.006848500623481535</v>
+      </c>
+      <c r="P22">
+        <v>0.006848500623481536</v>
+      </c>
+      <c r="Q22">
+        <v>50.11199849616078</v>
+      </c>
+      <c r="R22">
+        <v>451.007986465447</v>
+      </c>
+      <c r="S22">
+        <v>0.0002936081711645213</v>
+      </c>
+      <c r="T22">
+        <v>0.0002936081711645213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H23">
+        <v>159.213361</v>
+      </c>
+      <c r="I23">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J23">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.477727</v>
+      </c>
+      <c r="N23">
+        <v>247.433181</v>
+      </c>
+      <c r="O23">
+        <v>0.5982031781913751</v>
+      </c>
+      <c r="P23">
+        <v>0.5982031781913751</v>
+      </c>
+      <c r="Q23">
+        <v>4377.185374436815</v>
+      </c>
+      <c r="R23">
+        <v>39394.66836993134</v>
+      </c>
+      <c r="S23">
+        <v>0.02564610135704217</v>
+      </c>
+      <c r="T23">
+        <v>0.02564610135704216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>110.2432883333333</v>
-      </c>
-      <c r="H21">
-        <v>330.729865</v>
-      </c>
-      <c r="I21">
-        <v>0.09929388100285352</v>
-      </c>
-      <c r="J21">
-        <v>0.09929388100285354</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>63.712864</v>
-      </c>
-      <c r="N21">
-        <v>191.138592</v>
-      </c>
-      <c r="O21">
-        <v>0.470000381752102</v>
-      </c>
-      <c r="P21">
-        <v>0.470000381752102</v>
-      </c>
-      <c r="Q21">
-        <v>7023.915636494454</v>
-      </c>
-      <c r="R21">
-        <v>63215.24072845009</v>
-      </c>
-      <c r="S21">
-        <v>0.04666816197698894</v>
-      </c>
-      <c r="T21">
-        <v>0.04666816197698895</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H24">
+        <v>159.213361</v>
+      </c>
+      <c r="I24">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J24">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.766934000000001</v>
+      </c>
+      <c r="N24">
+        <v>29.300802</v>
+      </c>
+      <c r="O24">
+        <v>0.07083865150630789</v>
+      </c>
+      <c r="P24">
+        <v>0.07083865150630789</v>
+      </c>
+      <c r="Q24">
+        <v>518.3421296017248</v>
+      </c>
+      <c r="R24">
+        <v>4665.079166415522</v>
+      </c>
+      <c r="S24">
+        <v>0.003036986934806548</v>
+      </c>
+      <c r="T24">
+        <v>0.003036986934806548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H25">
+        <v>159.213361</v>
+      </c>
+      <c r="I25">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J25">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>44.68687199999999</v>
+      </c>
+      <c r="N25">
+        <v>134.060616</v>
+      </c>
+      <c r="O25">
+        <v>0.3241096696788354</v>
+      </c>
+      <c r="P25">
+        <v>0.3241096696788355</v>
+      </c>
+      <c r="Q25">
+        <v>2371.582361232264</v>
+      </c>
+      <c r="R25">
+        <v>21344.24125109037</v>
+      </c>
+      <c r="S25">
+        <v>0.01389519437946161</v>
+      </c>
+      <c r="T25">
+        <v>0.01389519437946161</v>
       </c>
     </row>
   </sheetData>
